--- a/RUNTIME/runtime.xlsx
+++ b/RUNTIME/runtime.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d9264860a0814b51/Research/SPL systems/VARCOP/Runtime/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d9264860a0814b51/Research/SPL systems/VARCOP/RUNTIME/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{46D1A2B6-AA00-DC4B-9325-229D0B33DB74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="20980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29420" yWindow="4080" windowWidth="28800" windowHeight="16060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -253,20 +253,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -324,7 +324,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-VN"/>
+          <a:endParaRPr lang="en-JP"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -472,7 +472,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-VN"/>
+              <a:endParaRPr lang="en-JP"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -510,7 +510,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1117460096"/>
@@ -593,7 +593,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-VN"/>
+              <a:endParaRPr lang="en-JP"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -625,7 +625,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1117026784"/>
@@ -673,7 +673,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-VN"/>
+      <a:endParaRPr lang="en-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -860,7 +860,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-VN"/>
+              <a:endParaRPr lang="en-JP"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -898,7 +898,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1259999664"/>
@@ -980,7 +980,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-VN"/>
+              <a:endParaRPr lang="en-JP"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1012,7 +1012,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1260269216"/>
@@ -1060,7 +1060,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-VN"/>
+      <a:endParaRPr lang="en-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2466,7 +2466,7 @@
   <dimension ref="A1:I1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2475,28 +2475,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="11"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3698,8 +3698,8 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3708,27 +3708,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
@@ -3762,7 +3762,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3794,22 +3794,22 @@
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="9" t="s">
         <v>27</v>
       </c>
     </row>
